--- a/dashboard/dashboard_coperni_finalizado 1.xlsx
+++ b/dashboard/dashboard_coperni_finalizado 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E48BC75-908E-4411-AAF7-B40AB688F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A8FD64-F871-4AA9-B350-23D155D10396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,6 +740,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Receita Mensal R$</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3515,56 +3540,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C791F846-678C-4414-B9D4-5BD4D6BBFAB7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7743825" y="809625"/>
-          <a:ext cx="3810000" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3852,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4822,6 +4797,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>